--- a/Code/Results/Cases/Case_6_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.102498523001827</v>
+        <v>1.661226920121095</v>
       </c>
       <c r="C2">
-        <v>0.4116835661700122</v>
+        <v>0.1077094733349639</v>
       </c>
       <c r="D2">
-        <v>0.008460329198218375</v>
+        <v>0.002072976888269906</v>
       </c>
       <c r="E2">
-        <v>0.01778285359238341</v>
+        <v>0.02055142980899927</v>
       </c>
       <c r="F2">
-        <v>2.960563389795212</v>
+        <v>2.744088595678122</v>
       </c>
       <c r="G2">
-        <v>0.0008550350972593702</v>
+        <v>0.0008783996954012467</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05928523926631968</v>
+        <v>0.0763237858368484</v>
       </c>
       <c r="K2">
-        <v>0.7410879753533806</v>
+        <v>1.478418546212595</v>
       </c>
       <c r="L2">
-        <v>0.1569534155439953</v>
+        <v>0.1275129986338897</v>
       </c>
       <c r="M2">
-        <v>0.5087612696559916</v>
+        <v>0.3004517422475992</v>
       </c>
       <c r="N2">
-        <v>2.12389993485192</v>
+        <v>2.922410092992521</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.760396834527285</v>
+        <v>1.49794738118544</v>
       </c>
       <c r="C3">
-        <v>0.3550213289872488</v>
+        <v>0.09286571729822413</v>
       </c>
       <c r="D3">
-        <v>0.007448746602729983</v>
+        <v>0.002104053126307015</v>
       </c>
       <c r="E3">
-        <v>0.01746889770703852</v>
+        <v>0.02045346802535164</v>
       </c>
       <c r="F3">
-        <v>2.811488363056924</v>
+        <v>2.652655842903812</v>
       </c>
       <c r="G3">
-        <v>0.0008637585603649047</v>
+        <v>0.0008852303006960064</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06018724944490472</v>
+        <v>0.07704553059032015</v>
       </c>
       <c r="K3">
-        <v>0.6535764407655336</v>
+        <v>1.318283694407825</v>
       </c>
       <c r="L3">
-        <v>0.1455507419645699</v>
+        <v>0.1191854239635219</v>
       </c>
       <c r="M3">
-        <v>0.4562947098233394</v>
+        <v>0.2732494278155997</v>
       </c>
       <c r="N3">
-        <v>2.154668224685722</v>
+        <v>2.936813946858237</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.555069581708153</v>
+        <v>1.399844251528776</v>
       </c>
       <c r="C4">
-        <v>0.3208121457198558</v>
+        <v>0.08386352412418319</v>
       </c>
       <c r="D4">
-        <v>0.006865864358491791</v>
+        <v>0.002121915277279562</v>
       </c>
       <c r="E4">
-        <v>0.01728097518901284</v>
+        <v>0.02040665642775696</v>
       </c>
       <c r="F4">
-        <v>2.724796674220215</v>
+        <v>2.599757495352463</v>
       </c>
       <c r="G4">
-        <v>0.000869266478647166</v>
+        <v>0.0008895560861552573</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06075923779711889</v>
+        <v>0.07752759760923489</v>
       </c>
       <c r="K4">
-        <v>0.6009743166895305</v>
+        <v>1.22188227424391</v>
       </c>
       <c r="L4">
-        <v>0.1387678308474207</v>
+        <v>0.1142275975875222</v>
       </c>
       <c r="M4">
-        <v>0.4248491476338856</v>
+        <v>0.2569341832063046</v>
       </c>
       <c r="N4">
-        <v>2.175733855651785</v>
+        <v>2.947818036464781</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.472466083393556</v>
+        <v>1.360364113979756</v>
       </c>
       <c r="C5">
-        <v>0.306997718327068</v>
+        <v>0.08021904108105105</v>
       </c>
       <c r="D5">
-        <v>0.006636689750905589</v>
+        <v>0.002128847682367763</v>
       </c>
       <c r="E5">
-        <v>0.017205410395424</v>
+        <v>0.02039086939921297</v>
       </c>
       <c r="F5">
-        <v>2.690596955299313</v>
+        <v>2.578972220812545</v>
       </c>
       <c r="G5">
-        <v>0.0008715506585233641</v>
+        <v>0.0008913528880270024</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06099692413243618</v>
+        <v>0.07773370268428259</v>
       </c>
       <c r="K5">
-        <v>0.5797922305279215</v>
+        <v>1.183038589864623</v>
       </c>
       <c r="L5">
-        <v>0.1360546674158982</v>
+        <v>0.1122440728119614</v>
       </c>
       <c r="M5">
-        <v>0.4122099924919667</v>
+        <v>0.2503757151718631</v>
       </c>
       <c r="N5">
-        <v>2.184840316428037</v>
+        <v>2.952826070499256</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.458811099831166</v>
+        <v>1.353837314973248</v>
       </c>
       <c r="C6">
-        <v>0.3047109000964952</v>
+        <v>0.07961520967943159</v>
       </c>
       <c r="D6">
-        <v>0.006599105471416067</v>
+        <v>0.002129976875409945</v>
       </c>
       <c r="E6">
-        <v>0.0171929186483708</v>
+        <v>0.02038844483138291</v>
       </c>
       <c r="F6">
-        <v>2.684983754803142</v>
+        <v>2.575566192177376</v>
       </c>
       <c r="G6">
-        <v>0.0008719323824256045</v>
+        <v>0.0008916533243523644</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06103667029580029</v>
+        <v>0.07776850612401631</v>
       </c>
       <c r="K6">
-        <v>0.5762894379564756</v>
+        <v>1.176614047838626</v>
       </c>
       <c r="L6">
-        <v>0.1356071140196136</v>
+        <v>0.1119168719529569</v>
       </c>
       <c r="M6">
-        <v>0.4101213440650113</v>
+        <v>0.2492919280438635</v>
       </c>
       <c r="N6">
-        <v>2.186383286765732</v>
+        <v>2.953688743594753</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.553951384084542</v>
+        <v>1.399309848598307</v>
       </c>
       <c r="C7">
-        <v>0.3206253544487083</v>
+        <v>0.08381428153829518</v>
       </c>
       <c r="D7">
-        <v>0.006862741381471693</v>
+        <v>0.002122010219668624</v>
       </c>
       <c r="E7">
-        <v>0.01727995224043188</v>
+        <v>0.02040643028278133</v>
       </c>
       <c r="F7">
-        <v>2.724330991347912</v>
+        <v>2.599474111151281</v>
       </c>
       <c r="G7">
-        <v>0.0008692971214051624</v>
+        <v>0.0008895801796003815</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06076242466565773</v>
+        <v>0.07753033826593914</v>
       </c>
       <c r="K7">
-        <v>0.6006876590014514</v>
+        <v>1.221356684770541</v>
       </c>
       <c r="L7">
-        <v>0.1387310390108496</v>
+        <v>0.11420070080068</v>
       </c>
       <c r="M7">
-        <v>0.424678005382205</v>
+        <v>0.2568453776826622</v>
       </c>
       <c r="N7">
-        <v>2.175854585840554</v>
+        <v>2.947883480464284</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.983486540266142</v>
+        <v>1.604454694804076</v>
       </c>
       <c r="C8">
-        <v>0.3920130210145203</v>
+        <v>0.1025655148392985</v>
       </c>
       <c r="D8">
-        <v>0.00810280385586637</v>
+        <v>0.002083917794874601</v>
       </c>
       <c r="E8">
-        <v>0.01767346625493094</v>
+        <v>0.02051484379522961</v>
       </c>
       <c r="F8">
-        <v>2.908101424899968</v>
+        <v>2.711862380484121</v>
       </c>
       <c r="G8">
-        <v>0.0008580124165740195</v>
+        <v>0.0008807280833091391</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05959250540024552</v>
+        <v>0.076564488459125</v>
       </c>
       <c r="K8">
-        <v>0.7106602309162895</v>
+        <v>1.422778543268294</v>
       </c>
       <c r="L8">
-        <v>0.1529739477643943</v>
+        <v>0.1246080192028884</v>
       </c>
       <c r="M8">
-        <v>0.4904997190884117</v>
+        <v>0.2909875491233684</v>
       </c>
       <c r="N8">
-        <v>2.134042249763539</v>
+        <v>2.926916132573609</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.86922881844157</v>
+        <v>2.025933221542516</v>
       </c>
       <c r="C9">
-        <v>0.5376283951614482</v>
+        <v>0.1404296064025061</v>
       </c>
       <c r="D9">
-        <v>0.01090166349015931</v>
+        <v>0.002001905839767559</v>
       </c>
       <c r="E9">
-        <v>0.0184940042884465</v>
+        <v>0.02083649990093406</v>
       </c>
       <c r="F9">
-        <v>3.311338801817413</v>
+        <v>2.960126770559398</v>
       </c>
       <c r="G9">
-        <v>0.0008370115847743639</v>
+        <v>0.00086437219924929</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0574407076885004</v>
+        <v>0.07498536549325863</v>
       </c>
       <c r="K9">
-        <v>0.9368082312907973</v>
+        <v>1.835108973345768</v>
       </c>
       <c r="L9">
-        <v>0.1828357348152139</v>
+        <v>0.1463587695881685</v>
       </c>
       <c r="M9">
-        <v>0.6265881873519064</v>
+        <v>0.3613652857639025</v>
       </c>
       <c r="N9">
-        <v>2.070516469295669</v>
+        <v>2.903885187309641</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.555701011573433</v>
+        <v>2.350523217564444</v>
       </c>
       <c r="C10">
-        <v>0.6496177639485268</v>
+        <v>0.1692279765086795</v>
       </c>
       <c r="D10">
-        <v>0.0132828708569015</v>
+        <v>0.001941440405020423</v>
       </c>
       <c r="E10">
-        <v>0.01914326709998759</v>
+        <v>0.02114431482717105</v>
       </c>
       <c r="F10">
-        <v>3.640650175658465</v>
+        <v>3.162785440208182</v>
       </c>
       <c r="G10">
-        <v>0.0008221544438176497</v>
+        <v>0.0008529031201824159</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05594414421346805</v>
+        <v>0.07402648431730974</v>
       </c>
       <c r="K10">
-        <v>1.111729229525011</v>
+        <v>2.151809179739331</v>
       </c>
       <c r="L10">
-        <v>0.2062618426389946</v>
+        <v>0.1633238812494113</v>
       </c>
       <c r="M10">
-        <v>0.7322631437620899</v>
+        <v>0.4156983573445672</v>
       </c>
       <c r="N10">
-        <v>2.036997779242611</v>
+        <v>2.89942803034792</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.878112637976528</v>
+        <v>2.502226358813573</v>
       </c>
       <c r="C11">
-        <v>0.70205699489361</v>
+        <v>0.1826197342828806</v>
       </c>
       <c r="D11">
-        <v>0.01446334580703024</v>
+        <v>0.001915158487499014</v>
       </c>
       <c r="E11">
-        <v>0.0194531391134336</v>
+        <v>0.02130113221327701</v>
       </c>
       <c r="F11">
-        <v>3.79940971108573</v>
+        <v>3.260186237987398</v>
       </c>
       <c r="G11">
-        <v>0.0008154905401971935</v>
+        <v>0.0008477889146516491</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05528105010527717</v>
+        <v>0.07363629100334457</v>
       </c>
       <c r="K11">
-        <v>1.193816944355575</v>
+        <v>2.299659782282731</v>
       </c>
       <c r="L11">
-        <v>0.2173205987344744</v>
+        <v>0.1712966420915194</v>
       </c>
       <c r="M11">
-        <v>0.7819346808920642</v>
+        <v>0.4411189779481788</v>
       </c>
       <c r="N11">
-        <v>2.025092817842392</v>
+        <v>2.900463687342778</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.001883466966319</v>
+        <v>2.560327339691582</v>
       </c>
       <c r="C12">
-        <v>0.722168160647584</v>
+        <v>0.1877399488660387</v>
       </c>
       <c r="D12">
-        <v>0.01492696872704613</v>
+        <v>0.001905517606925144</v>
       </c>
       <c r="E12">
-        <v>0.01957300599743705</v>
+        <v>0.02136304680411438</v>
       </c>
       <c r="F12">
-        <v>3.860984614690835</v>
+        <v>3.297893160572585</v>
       </c>
       <c r="G12">
-        <v>0.0008129779492937747</v>
+        <v>0.0008458657213020653</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05503244863526735</v>
+        <v>0.07349536772955467</v>
       </c>
       <c r="K12">
-        <v>1.225321036842416</v>
+        <v>2.356263258936337</v>
       </c>
       <c r="L12">
-        <v>0.2215735653939106</v>
+        <v>0.1743561837227716</v>
       </c>
       <c r="M12">
-        <v>0.8010084164958613</v>
+        <v>0.4508585621847629</v>
       </c>
       <c r="N12">
-        <v>2.021112515089783</v>
+        <v>2.901329671160056</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.975148597526925</v>
+        <v>2.547783922373981</v>
       </c>
       <c r="C13">
-        <v>0.7178249141182675</v>
+        <v>0.1866349155177573</v>
       </c>
       <c r="D13">
-        <v>0.01482633495737673</v>
+        <v>0.001907577644141512</v>
       </c>
       <c r="E13">
-        <v>0.01954707052069038</v>
+        <v>0.02134959781615198</v>
       </c>
       <c r="F13">
-        <v>3.847655682624691</v>
+        <v>3.2897344223625</v>
       </c>
       <c r="G13">
-        <v>0.000813518643741469</v>
+        <v>0.0008462793407239267</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05508587911080687</v>
+        <v>0.0735254103957601</v>
       </c>
       <c r="K13">
-        <v>1.218516424769902</v>
+        <v>2.344044086041805</v>
       </c>
       <c r="L13">
-        <v>0.2206545823645598</v>
+        <v>0.1736953953667282</v>
       </c>
       <c r="M13">
-        <v>0.7968882048465318</v>
+        <v>0.448755722327725</v>
       </c>
       <c r="N13">
-        <v>2.021945451507378</v>
+        <v>2.901121526665861</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.888260276549147</v>
+        <v>2.50699280753679</v>
       </c>
       <c r="C14">
-        <v>0.7037062313942499</v>
+        <v>0.183039950730759</v>
       </c>
       <c r="D14">
-        <v>0.01450113922017948</v>
+        <v>0.001914358212183664</v>
       </c>
       <c r="E14">
-        <v>0.01946294728083764</v>
+        <v>0.02130617452000827</v>
       </c>
       <c r="F14">
-        <v>3.804445291154138</v>
+        <v>3.263271457304654</v>
       </c>
       <c r="G14">
-        <v>0.00081528362653852</v>
+        <v>0.0008476304312310328</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05526054773629285</v>
+        <v>0.07362455885698971</v>
       </c>
       <c r="K14">
-        <v>1.196400046607963</v>
+        <v>2.304303808963994</v>
       </c>
       <c r="L14">
-        <v>0.2176691391687768</v>
+        <v>0.1715475195218517</v>
       </c>
       <c r="M14">
-        <v>0.7834983823294692</v>
+        <v>0.4419179143755159</v>
       </c>
       <c r="N14">
-        <v>2.024754485125058</v>
+        <v>2.900525233730548</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.835264642848017</v>
+        <v>2.482094554343007</v>
       </c>
       <c r="C15">
-        <v>0.6950923850212689</v>
+        <v>0.1808445437321495</v>
       </c>
       <c r="D15">
-        <v>0.01430419388836413</v>
+        <v>0.001918556547922279</v>
       </c>
       <c r="E15">
-        <v>0.01941176233726116</v>
+        <v>0.02127990982067907</v>
       </c>
       <c r="F15">
-        <v>3.778172672646264</v>
+        <v>3.24717167639642</v>
       </c>
       <c r="G15">
-        <v>0.000816366060209892</v>
+        <v>0.0008484597209487413</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05536786114023906</v>
+        <v>0.07368618706554741</v>
       </c>
       <c r="K15">
-        <v>1.182909558881491</v>
+        <v>2.280044170993762</v>
       </c>
       <c r="L15">
-        <v>0.2158492035245558</v>
+        <v>0.1702372654243973</v>
       </c>
       <c r="M15">
-        <v>0.7753322245458349</v>
+        <v>0.4377446991997829</v>
       </c>
       <c r="N15">
-        <v>2.026545344236681</v>
+        <v>2.900222736644025</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.534853020926789</v>
+        <v>2.340696510310863</v>
       </c>
       <c r="C16">
-        <v>0.6462240042378937</v>
+        <v>0.1683592500639151</v>
       </c>
       <c r="D16">
-        <v>0.01320789621527041</v>
+        <v>0.001943193612897076</v>
       </c>
       <c r="E16">
-        <v>0.01912334427414963</v>
+        <v>0.02113441401458971</v>
       </c>
       <c r="F16">
-        <v>3.630468978109803</v>
+        <v>3.156531086543367</v>
       </c>
       <c r="G16">
-        <v>0.0008225916248163159</v>
+        <v>0.000853239305388831</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05598783117849226</v>
+        <v>0.07405292835383648</v>
       </c>
       <c r="K16">
-        <v>1.1064199763034</v>
+        <v>2.142228879943815</v>
       </c>
       <c r="L16">
-        <v>0.205547833277663</v>
+        <v>0.1628082893001306</v>
       </c>
       <c r="M16">
-        <v>0.7290520055922514</v>
+        <v>0.4140522372654232</v>
       </c>
       <c r="N16">
-        <v>2.037846957850093</v>
+        <v>2.899424760078787</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.353305824902463</v>
+        <v>2.255039002674152</v>
       </c>
       <c r="C17">
-        <v>0.6166536259405291</v>
+        <v>0.1607793913029383</v>
       </c>
       <c r="D17">
-        <v>0.01256200789724815</v>
+        <v>0.001958709529774616</v>
       </c>
       <c r="E17">
-        <v>0.01895041857899171</v>
+        <v>0.02104953679922517</v>
       </c>
       <c r="F17">
-        <v>3.542264367487206</v>
+        <v>3.102311016412827</v>
       </c>
       <c r="G17">
-        <v>0.0008264332151177408</v>
+        <v>0.000856196893842582</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05637266358099069</v>
+        <v>0.07428984466237587</v>
       </c>
       <c r="K17">
-        <v>1.060179064239364</v>
+        <v>2.058701271058823</v>
       </c>
       <c r="L17">
-        <v>0.1993362754021604</v>
+        <v>0.1583187695842199</v>
       </c>
       <c r="M17">
-        <v>0.7010932889172139</v>
+        <v>0.3997062858451272</v>
       </c>
       <c r="N17">
-        <v>2.045668016598583</v>
+        <v>2.899742467244764</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.249823435604128</v>
+        <v>2.206147115162651</v>
       </c>
       <c r="C18">
-        <v>0.5997836292623049</v>
+        <v>0.1564465989610966</v>
       </c>
       <c r="D18">
-        <v>0.01219948633950096</v>
+        <v>0.001967739527549028</v>
       </c>
       <c r="E18">
-        <v>0.01885229310631331</v>
+        <v>0.02100229040973378</v>
       </c>
       <c r="F18">
-        <v>3.492362968237842</v>
+        <v>3.071610645331504</v>
       </c>
       <c r="G18">
-        <v>0.0008286518898144024</v>
+        <v>0.0008579078180548681</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05659567806761467</v>
+        <v>0.07443042870001015</v>
       </c>
       <c r="K18">
-        <v>1.033815421626073</v>
+        <v>2.011009694644457</v>
       </c>
       <c r="L18">
-        <v>0.195800904280695</v>
+        <v>0.155760298553119</v>
       </c>
       <c r="M18">
-        <v>0.685160443578674</v>
+        <v>0.3915203712048339</v>
       </c>
       <c r="N18">
-        <v>2.050477974443268</v>
+        <v>2.900211348282966</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.214940939223823</v>
+        <v>2.18965565000434</v>
       </c>
       <c r="C19">
-        <v>0.5940943597623516</v>
+        <v>0.1549840106423659</v>
       </c>
       <c r="D19">
-        <v>0.01207821074569893</v>
+        <v>0.001970811365724856</v>
       </c>
       <c r="E19">
-        <v>0.01881928684172562</v>
+        <v>0.02098656035632906</v>
       </c>
       <c r="F19">
-        <v>3.475605233637765</v>
+        <v>3.06129728357223</v>
       </c>
       <c r="G19">
-        <v>0.0008294047346774512</v>
+        <v>0.0008584888305048878</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05667147498865432</v>
+        <v>0.07447876300231648</v>
       </c>
       <c r="K19">
-        <v>1.024927508129025</v>
+        <v>1.994920406100789</v>
       </c>
       <c r="L19">
-        <v>0.1946100916691265</v>
+        <v>0.1548980209411752</v>
       </c>
       <c r="M19">
-        <v>0.6797903466228945</v>
+        <v>0.3887596609509885</v>
       </c>
       <c r="N19">
-        <v>2.052158702004647</v>
+        <v>2.90041828744458</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.372533144230488</v>
+        <v>2.264117967945595</v>
       </c>
       <c r="C20">
-        <v>0.6197868859451319</v>
+        <v>0.1615834422309774</v>
       </c>
       <c r="D20">
-        <v>0.01262981703291999</v>
+        <v>0.00195704600035107</v>
       </c>
       <c r="E20">
-        <v>0.01896868550196595</v>
+        <v>0.02105840854485397</v>
       </c>
       <c r="F20">
-        <v>3.55156668124323</v>
+        <v>3.108032065849187</v>
       </c>
       <c r="G20">
-        <v>0.0008260233488878179</v>
+        <v>0.0008558810491043214</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05633152510410744</v>
+        <v>0.07426417630615312</v>
       </c>
       <c r="K20">
-        <v>1.065076989040875</v>
+        <v>2.06755607196115</v>
       </c>
       <c r="L20">
-        <v>0.1999935894927134</v>
+        <v>0.1587941994079003</v>
       </c>
       <c r="M20">
-        <v>0.7040539623663662</v>
+        <v>0.4012265743326537</v>
       </c>
       <c r="N20">
-        <v>2.044802890824542</v>
+        <v>2.899678801191627</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.91373395078989</v>
+        <v>2.518955775856114</v>
       </c>
       <c r="C21">
-        <v>0.7078460159406177</v>
+        <v>0.184094487082703</v>
       </c>
       <c r="D21">
-        <v>0.01459618370358839</v>
+        <v>0.001912356928182035</v>
       </c>
       <c r="E21">
-        <v>0.01948758396285566</v>
+        <v>0.02131885930389998</v>
       </c>
       <c r="F21">
-        <v>3.817096262551132</v>
+        <v>3.271021298918441</v>
       </c>
       <c r="G21">
-        <v>0.0008147649362490053</v>
+        <v>0.0008472332300110683</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05520917593167152</v>
+        <v>0.07359524921329452</v>
       </c>
       <c r="K21">
-        <v>1.202884289255664</v>
+        <v>2.315959175190045</v>
       </c>
       <c r="L21">
-        <v>0.2185442013495589</v>
+        <v>0.1721772739826335</v>
       </c>
       <c r="M21">
-        <v>0.7874238334133494</v>
+        <v>0.4439231659967575</v>
       </c>
       <c r="N21">
-        <v>2.02391467193506</v>
+        <v>2.900687238193427</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.277360441896008</v>
+        <v>2.689359684110627</v>
       </c>
       <c r="C22">
-        <v>0.7668974712731256</v>
+        <v>0.1990965195811327</v>
       </c>
       <c r="D22">
-        <v>0.01597959937413762</v>
+        <v>0.001885048629779007</v>
       </c>
       <c r="E22">
-        <v>0.01984168655541918</v>
+        <v>0.02150389657638918</v>
       </c>
       <c r="F22">
-        <v>3.999216831199107</v>
+        <v>3.382383160225061</v>
       </c>
       <c r="G22">
-        <v>0.0008074688406680715</v>
+        <v>0.0008416590131085595</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05449019064822114</v>
+        <v>0.07319802085540061</v>
       </c>
       <c r="K22">
-        <v>1.295425298166336</v>
+        <v>2.481932111443967</v>
       </c>
       <c r="L22">
-        <v>0.2310526008585896</v>
+        <v>0.1811615396448687</v>
       </c>
       <c r="M22">
-        <v>0.8434699438464435</v>
+        <v>0.4724950090870692</v>
       </c>
       <c r="N22">
-        <v>2.013366210359507</v>
+        <v>2.904125974675878</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.082296940687911</v>
+        <v>2.598033522622472</v>
       </c>
       <c r="C23">
-        <v>0.7352292447367859</v>
+        <v>0.1910605710476005</v>
       </c>
       <c r="D23">
-        <v>0.01523128178101985</v>
+        <v>0.001899397931108382</v>
       </c>
       <c r="E23">
-        <v>0.01965116250653232</v>
+        <v>0.0214037409304213</v>
       </c>
       <c r="F23">
-        <v>3.901168993500335</v>
+        <v>3.32247802795564</v>
       </c>
       <c r="G23">
-        <v>0.0008113582295927147</v>
+        <v>0.0008446274657012252</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05487261334516536</v>
+        <v>0.07340629520287045</v>
       </c>
       <c r="K23">
-        <v>1.245786875635972</v>
+        <v>2.392991725931836</v>
       </c>
       <c r="L23">
-        <v>0.2243387464619957</v>
+        <v>0.1763433959665974</v>
       </c>
       <c r="M23">
-        <v>0.8134019653416829</v>
+        <v>0.457180328825487</v>
       </c>
       <c r="N23">
-        <v>2.018694949166019</v>
+        <v>2.902024404429369</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.363837712837949</v>
+        <v>2.260012271276594</v>
       </c>
       <c r="C24">
-        <v>0.6183699357597163</v>
+        <v>0.1612198535645604</v>
       </c>
       <c r="D24">
-        <v>0.01259913327966444</v>
+        <v>0.001957797750216983</v>
       </c>
       <c r="E24">
-        <v>0.01896042303444867</v>
+        <v>0.02105439280743759</v>
       </c>
       <c r="F24">
-        <v>3.547358599032464</v>
+        <v>3.10544411638972</v>
       </c>
       <c r="G24">
-        <v>0.0008262086176909062</v>
+        <v>0.0008560238094791273</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05635011829535408</v>
+        <v>0.07427576735070396</v>
       </c>
       <c r="K24">
-        <v>1.062861953522301</v>
+        <v>2.063551795311952</v>
       </c>
       <c r="L24">
-        <v>0.1996963070320064</v>
+        <v>0.1585791874254241</v>
       </c>
       <c r="M24">
-        <v>0.7027150052671303</v>
+        <v>0.4005390604251815</v>
       </c>
       <c r="N24">
-        <v>2.045193041109712</v>
+        <v>2.899706695558677</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.62406883501086</v>
+        <v>1.909540844262665</v>
       </c>
       <c r="C25">
-        <v>0.4974812670838844</v>
+        <v>0.1300387324176313</v>
       </c>
       <c r="D25">
-        <v>0.01009554521478506</v>
+        <v>0.002024494642450136</v>
       </c>
       <c r="E25">
-        <v>0.01826521471644238</v>
+        <v>0.02073732061320932</v>
       </c>
       <c r="F25">
-        <v>3.196994247979575</v>
+        <v>2.889660667698379</v>
       </c>
       <c r="G25">
-        <v>0.0008425833106451486</v>
+        <v>0.000868695819744896</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05800782417785033</v>
+        <v>0.07537793627650657</v>
       </c>
       <c r="K25">
-        <v>0.8742764303747208</v>
+        <v>1.721393491688019</v>
       </c>
       <c r="L25">
-        <v>0.1745206144476938</v>
+        <v>0.1403145832645478</v>
       </c>
       <c r="M25">
-        <v>0.5888849379283911</v>
+        <v>0.3419067465798307</v>
       </c>
       <c r="N25">
-        <v>2.085542012334685</v>
+        <v>2.908038888284707</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.661226920121095</v>
+        <v>1.014294084747718</v>
       </c>
       <c r="C2">
-        <v>0.1077094733349639</v>
+        <v>0.1049429364066725</v>
       </c>
       <c r="D2">
-        <v>0.002072976888269906</v>
+        <v>0.04133844495879657</v>
       </c>
       <c r="E2">
-        <v>0.02055142980899927</v>
+        <v>0.03772299837395465</v>
       </c>
       <c r="F2">
-        <v>2.744088595678122</v>
+        <v>1.167344317427009</v>
       </c>
       <c r="G2">
-        <v>0.0008783996954012467</v>
+        <v>0.9136458439189994</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0237456048798288</v>
       </c>
       <c r="J2">
-        <v>0.0763237858368484</v>
+        <v>0.6721896065272404</v>
       </c>
       <c r="K2">
-        <v>1.478418546212595</v>
+        <v>0.7072073506534977</v>
       </c>
       <c r="L2">
-        <v>0.1275129986338897</v>
+        <v>0.0622648929741878</v>
       </c>
       <c r="M2">
-        <v>0.3004517422475992</v>
+        <v>0.9500908231505321</v>
       </c>
       <c r="N2">
-        <v>2.922410092992521</v>
+        <v>0.1635382278434889</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2207590210706201</v>
+      </c>
+      <c r="P2">
+        <v>1.368659897087852</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.49794738118544</v>
+        <v>0.889363419487097</v>
       </c>
       <c r="C3">
-        <v>0.09286571729822413</v>
+        <v>0.09179136886974959</v>
       </c>
       <c r="D3">
-        <v>0.002104053126307015</v>
+        <v>0.0373664460020251</v>
       </c>
       <c r="E3">
-        <v>0.02045346802535164</v>
+        <v>0.0372175740698788</v>
       </c>
       <c r="F3">
-        <v>2.652655842903812</v>
+        <v>1.139557456629511</v>
       </c>
       <c r="G3">
-        <v>0.0008852303006960064</v>
+        <v>0.8906595312868575</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02879527575427643</v>
       </c>
       <c r="J3">
-        <v>0.07704553059032015</v>
+        <v>0.6672129994893083</v>
       </c>
       <c r="K3">
-        <v>1.318283694407825</v>
+        <v>0.7016946352342757</v>
       </c>
       <c r="L3">
-        <v>0.1191854239635219</v>
+        <v>0.06288975475893732</v>
       </c>
       <c r="M3">
-        <v>0.2732494278155997</v>
+        <v>0.8280803563499148</v>
       </c>
       <c r="N3">
-        <v>2.936813946858237</v>
+        <v>0.1525892191842857</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1964168531561477</v>
+      </c>
+      <c r="P3">
+        <v>1.411282055170762</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.399844251528776</v>
+        <v>0.8126144256709154</v>
       </c>
       <c r="C4">
-        <v>0.08386352412418319</v>
+        <v>0.0838410589376366</v>
       </c>
       <c r="D4">
-        <v>0.002121915277279562</v>
+        <v>0.03496533313757766</v>
       </c>
       <c r="E4">
-        <v>0.02040665642775696</v>
+        <v>0.03692713551968829</v>
       </c>
       <c r="F4">
-        <v>2.599757495352463</v>
+        <v>1.123453377795933</v>
       </c>
       <c r="G4">
-        <v>0.0008895560861552573</v>
+        <v>0.8773246105482855</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.03229880115196027</v>
       </c>
       <c r="J4">
-        <v>0.07752759760923489</v>
+        <v>0.6646494224821851</v>
       </c>
       <c r="K4">
-        <v>1.22188227424391</v>
+        <v>0.6987368665302789</v>
       </c>
       <c r="L4">
-        <v>0.1142275975875222</v>
+        <v>0.06328665020778868</v>
       </c>
       <c r="M4">
-        <v>0.2569341832063046</v>
+        <v>0.7533875460347019</v>
       </c>
       <c r="N4">
-        <v>2.947818036464781</v>
+        <v>0.1460989058122095</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1815590314562314</v>
+      </c>
+      <c r="P4">
+        <v>1.438283028181733</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.360364113979756</v>
+        <v>0.7806040168433412</v>
       </c>
       <c r="C5">
-        <v>0.08021904108105105</v>
+        <v>0.08081954539342462</v>
       </c>
       <c r="D5">
-        <v>0.002128847682367763</v>
+        <v>0.03403239375357003</v>
       </c>
       <c r="E5">
-        <v>0.02039086939921297</v>
+        <v>0.03680704510775268</v>
       </c>
       <c r="F5">
-        <v>2.578972220812545</v>
+        <v>1.116411977458732</v>
       </c>
       <c r="G5">
-        <v>0.0008913528880270024</v>
+        <v>0.871373183906158</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.03392770372092802</v>
       </c>
       <c r="J5">
-        <v>0.07773370268428259</v>
+        <v>0.6633659865446333</v>
       </c>
       <c r="K5">
-        <v>1.183038589864623</v>
+        <v>0.6970985353470134</v>
       </c>
       <c r="L5">
-        <v>0.1122440728119614</v>
+        <v>0.06343531469122166</v>
       </c>
       <c r="M5">
-        <v>0.2503757151718631</v>
+        <v>0.7228261151586537</v>
       </c>
       <c r="N5">
-        <v>2.952826070499256</v>
+        <v>0.143623145171496</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1754743246692883</v>
+      </c>
+      <c r="P5">
+        <v>1.449084982094035</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.353837314973248</v>
+        <v>0.7744088134084564</v>
       </c>
       <c r="C6">
-        <v>0.07961520967943159</v>
+        <v>0.08055301963445061</v>
       </c>
       <c r="D6">
-        <v>0.002129976875409945</v>
+        <v>0.03392264783391852</v>
       </c>
       <c r="E6">
-        <v>0.02038844483138291</v>
+        <v>0.03677924376781228</v>
       </c>
       <c r="F6">
-        <v>2.575566192177376</v>
+        <v>1.114387440538174</v>
       </c>
       <c r="G6">
-        <v>0.0008916533243523644</v>
+        <v>0.8695342642820805</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.03433711108654247</v>
       </c>
       <c r="J6">
-        <v>0.07776850612401631</v>
+        <v>0.6627212051896407</v>
       </c>
       <c r="K6">
-        <v>1.176614047838626</v>
+        <v>0.6961763413270923</v>
       </c>
       <c r="L6">
-        <v>0.1119168719529569</v>
+        <v>0.06344018713756139</v>
       </c>
       <c r="M6">
-        <v>0.2492919280438635</v>
+        <v>0.7175464638538358</v>
       </c>
       <c r="N6">
-        <v>2.953688743594753</v>
+        <v>0.1433537812533174</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1744035735775498</v>
+      </c>
+      <c r="P6">
+        <v>1.450396031875929</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.399309848598307</v>
+        <v>0.8097739091264202</v>
       </c>
       <c r="C7">
-        <v>0.08381428153829518</v>
+        <v>0.08443939795797917</v>
       </c>
       <c r="D7">
-        <v>0.002122010219668624</v>
+        <v>0.03507463336180194</v>
       </c>
       <c r="E7">
-        <v>0.02040643028278133</v>
+        <v>0.03690322883431119</v>
       </c>
       <c r="F7">
-        <v>2.599474111151281</v>
+        <v>1.120984975415368</v>
       </c>
       <c r="G7">
-        <v>0.0008895801796003815</v>
+        <v>0.8748905643286662</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0326648233145308</v>
       </c>
       <c r="J7">
-        <v>0.07753033826593914</v>
+        <v>0.6634346865031375</v>
       </c>
       <c r="K7">
-        <v>1.221356684770541</v>
+        <v>0.6969232198206363</v>
       </c>
       <c r="L7">
-        <v>0.11420070080068</v>
+        <v>0.06323433964344982</v>
       </c>
       <c r="M7">
-        <v>0.2568453776826622</v>
+        <v>0.7524054183239741</v>
       </c>
       <c r="N7">
-        <v>2.947883480464284</v>
+        <v>0.1464432605351647</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1813079560253392</v>
+      </c>
+      <c r="P7">
+        <v>1.437092149713013</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.604454694804076</v>
+        <v>0.9679986805471117</v>
       </c>
       <c r="C8">
-        <v>0.1025655148392985</v>
+        <v>0.1012337359567113</v>
       </c>
       <c r="D8">
-        <v>0.002083917794874601</v>
+        <v>0.04012253965339596</v>
       </c>
       <c r="E8">
-        <v>0.02051484379522961</v>
+        <v>0.03751511106107763</v>
       </c>
       <c r="F8">
-        <v>2.711862380484121</v>
+        <v>1.154426092171036</v>
       </c>
       <c r="G8">
-        <v>0.0008807280833091391</v>
+        <v>0.90244517955162</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02581117959776336</v>
       </c>
       <c r="J8">
-        <v>0.076564488459125</v>
+        <v>0.6687931244969576</v>
       </c>
       <c r="K8">
-        <v>1.422778543268294</v>
+        <v>0.7028551199678859</v>
       </c>
       <c r="L8">
-        <v>0.1246080192028884</v>
+        <v>0.06240744379994823</v>
       </c>
       <c r="M8">
-        <v>0.2909875491233684</v>
+        <v>0.9072011197591792</v>
       </c>
       <c r="N8">
-        <v>2.926916132573609</v>
+        <v>0.1602139790794368</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2121191647757996</v>
+      </c>
+      <c r="P8">
+        <v>1.381486744350887</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.025933221542516</v>
+        <v>1.282638691238787</v>
       </c>
       <c r="C9">
-        <v>0.1404296064025061</v>
+        <v>0.13416382021326</v>
       </c>
       <c r="D9">
-        <v>0.002001905839767559</v>
+        <v>0.05011999478765006</v>
       </c>
       <c r="E9">
-        <v>0.02083649990093406</v>
+        <v>0.03891621762673658</v>
       </c>
       <c r="F9">
-        <v>2.960126770559398</v>
+        <v>1.232261074046249</v>
       </c>
       <c r="G9">
-        <v>0.00086437219924929</v>
+        <v>0.967260489164758</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01519903242228793</v>
       </c>
       <c r="J9">
-        <v>0.07498536549325863</v>
+        <v>0.6855066309294244</v>
       </c>
       <c r="K9">
-        <v>1.835108973345768</v>
+        <v>0.721226040440321</v>
       </c>
       <c r="L9">
-        <v>0.1463587695881685</v>
+        <v>0.06098474404960363</v>
       </c>
       <c r="M9">
-        <v>0.3613652857639025</v>
+        <v>1.214050005956096</v>
       </c>
       <c r="N9">
-        <v>2.903885187309641</v>
+        <v>0.1884961950277599</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2736464619723336</v>
+      </c>
+      <c r="P9">
+        <v>1.281477663226561</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.350523217564444</v>
+        <v>1.513041505974144</v>
       </c>
       <c r="C10">
-        <v>0.1692279765086795</v>
+        <v>0.1596294387536119</v>
       </c>
       <c r="D10">
-        <v>0.001941440405020423</v>
+        <v>0.05774673229724669</v>
       </c>
       <c r="E10">
-        <v>0.02114431482717105</v>
+        <v>0.0400383707581522</v>
       </c>
       <c r="F10">
-        <v>3.162785440208182</v>
+        <v>1.293805456141811</v>
       </c>
       <c r="G10">
-        <v>0.0008529031201824159</v>
+        <v>1.018327849854515</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.009815075604409529</v>
       </c>
       <c r="J10">
-        <v>0.07402648431730974</v>
+        <v>0.6999455962501742</v>
       </c>
       <c r="K10">
-        <v>2.151809179739331</v>
+        <v>0.7362530228849238</v>
       </c>
       <c r="L10">
-        <v>0.1633238812494113</v>
+        <v>0.05997821443903728</v>
       </c>
       <c r="M10">
-        <v>0.4156983573445672</v>
+        <v>1.441301140367756</v>
       </c>
       <c r="N10">
-        <v>2.89942803034792</v>
+        <v>0.2108188717020454</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3193952739432433</v>
+      </c>
+      <c r="P10">
+        <v>1.211823687372739</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.502226358813573</v>
+        <v>1.613958224343577</v>
       </c>
       <c r="C11">
-        <v>0.1826197342828806</v>
+        <v>0.172566086648672</v>
       </c>
       <c r="D11">
-        <v>0.001915158487499014</v>
+        <v>0.06147255780386018</v>
       </c>
       <c r="E11">
-        <v>0.02130113221327701</v>
+        <v>0.04053621887482706</v>
       </c>
       <c r="F11">
-        <v>3.260186237987398</v>
+        <v>1.319303147542968</v>
       </c>
       <c r="G11">
-        <v>0.0008477889146516491</v>
+        <v>1.03888158664212</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.008372247191923421</v>
       </c>
       <c r="J11">
-        <v>0.07363629100334457</v>
+        <v>0.705250470195395</v>
       </c>
       <c r="K11">
-        <v>2.299659782282731</v>
+        <v>0.7407897949486255</v>
       </c>
       <c r="L11">
-        <v>0.1712966420915194</v>
+        <v>0.05945360210115602</v>
       </c>
       <c r="M11">
-        <v>0.4411189779481788</v>
+        <v>1.544307950281677</v>
       </c>
       <c r="N11">
-        <v>2.900463687342778</v>
+        <v>0.2219294787225152</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3400844611376996</v>
+      </c>
+      <c r="P11">
+        <v>1.179331835473828</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.560327339691582</v>
+        <v>1.654391722801336</v>
       </c>
       <c r="C12">
-        <v>0.1877399488660387</v>
+        <v>0.1769312473667526</v>
       </c>
       <c r="D12">
-        <v>0.001905517606925144</v>
+        <v>0.06278460469403058</v>
       </c>
       <c r="E12">
-        <v>0.02136304680411438</v>
+        <v>0.04074765998133323</v>
       </c>
       <c r="F12">
-        <v>3.297893160572585</v>
+        <v>1.331215737695175</v>
       </c>
       <c r="G12">
-        <v>0.0008458657213020653</v>
+        <v>1.048874272153171</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.007658787882933282</v>
       </c>
       <c r="J12">
-        <v>0.07349536772955467</v>
+        <v>0.7083830158373701</v>
       </c>
       <c r="K12">
-        <v>2.356263258936337</v>
+        <v>0.7441304249961576</v>
       </c>
       <c r="L12">
-        <v>0.1743561837227716</v>
+        <v>0.05930026945109201</v>
       </c>
       <c r="M12">
-        <v>0.4508585621847629</v>
+        <v>1.583951515687119</v>
       </c>
       <c r="N12">
-        <v>2.901329671160056</v>
+        <v>0.2258571775919762</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3481023946010069</v>
+      </c>
+      <c r="P12">
+        <v>1.1681737934152</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.547783922373981</v>
+        <v>1.646121292982599</v>
       </c>
       <c r="C13">
-        <v>0.1866349155177573</v>
+        <v>0.1758725750738677</v>
       </c>
       <c r="D13">
-        <v>0.001907577644141512</v>
+        <v>0.06248004087437664</v>
       </c>
       <c r="E13">
-        <v>0.02134959781615198</v>
+        <v>0.04070586479987881</v>
       </c>
       <c r="F13">
-        <v>3.2897344223625</v>
+        <v>1.329052685082601</v>
       </c>
       <c r="G13">
-        <v>0.0008462793407239267</v>
+        <v>1.047122629525916</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.007756570517881478</v>
       </c>
       <c r="J13">
-        <v>0.0735254103957601</v>
+        <v>0.7079093930176299</v>
       </c>
       <c r="K13">
-        <v>2.344044086041805</v>
+        <v>0.7437149111457373</v>
       </c>
       <c r="L13">
-        <v>0.1736953953667282</v>
+        <v>0.05934183683025918</v>
       </c>
       <c r="M13">
-        <v>0.448755722327725</v>
+        <v>1.575516190575996</v>
       </c>
       <c r="N13">
-        <v>2.901121526665861</v>
+        <v>0.2249422860851524</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3464058131429937</v>
+      </c>
+      <c r="P13">
+        <v>1.170766100708583</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.50699280753679</v>
+        <v>1.617470391023488</v>
       </c>
       <c r="C14">
-        <v>0.183039950730759</v>
+        <v>0.1728748182036242</v>
       </c>
       <c r="D14">
-        <v>0.001914358212183664</v>
+        <v>0.06157114977515477</v>
       </c>
       <c r="E14">
-        <v>0.02130617452000827</v>
+        <v>0.04055519990512479</v>
       </c>
       <c r="F14">
-        <v>3.263271457304654</v>
+        <v>1.32045397311505</v>
       </c>
       <c r="G14">
-        <v>0.0008476304312310328</v>
+        <v>1.039873607125855</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008289334768049272</v>
       </c>
       <c r="J14">
-        <v>0.07362455885698971</v>
+        <v>0.7055934913815634</v>
       </c>
       <c r="K14">
-        <v>2.304303808963994</v>
+        <v>0.7411936605277987</v>
       </c>
       <c r="L14">
-        <v>0.1715475195218517</v>
+        <v>0.05944462018462993</v>
       </c>
       <c r="M14">
-        <v>0.4419179143755159</v>
+        <v>1.547612850427441</v>
       </c>
       <c r="N14">
-        <v>2.900525233730548</v>
+        <v>0.2222232467482144</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3407568907841778</v>
+      </c>
+      <c r="P14">
+        <v>1.178494338915666</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.482094554343007</v>
+        <v>1.599062812187412</v>
       </c>
       <c r="C15">
-        <v>0.1808445437321495</v>
+        <v>0.1712738404895617</v>
       </c>
       <c r="D15">
-        <v>0.001918556547922279</v>
+        <v>0.06105809339813817</v>
       </c>
       <c r="E15">
-        <v>0.02127990982067907</v>
+        <v>0.04045569714051034</v>
       </c>
       <c r="F15">
-        <v>3.24717167639642</v>
+        <v>1.314403426230783</v>
       </c>
       <c r="G15">
-        <v>0.0008484597209487413</v>
+        <v>1.034652647420003</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008734195253101262</v>
       </c>
       <c r="J15">
-        <v>0.07368618706554741</v>
+        <v>0.7037832871570942</v>
       </c>
       <c r="K15">
-        <v>2.280044170993762</v>
+        <v>0.7390547226149593</v>
       </c>
       <c r="L15">
-        <v>0.1702372654243973</v>
+        <v>0.05949079854141281</v>
       </c>
       <c r="M15">
-        <v>0.4377446991997829</v>
+        <v>1.530324516874401</v>
       </c>
       <c r="N15">
-        <v>2.900222736644025</v>
+        <v>0.2206958355811253</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.337238624923053</v>
+      </c>
+      <c r="P15">
+        <v>1.182859888589711</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.340696510310863</v>
+        <v>1.499190357734477</v>
       </c>
       <c r="C16">
-        <v>0.1683592500639151</v>
+        <v>0.1607150684777281</v>
       </c>
       <c r="D16">
-        <v>0.001943193612897076</v>
+        <v>0.05786243046085104</v>
       </c>
       <c r="E16">
-        <v>0.02113441401458971</v>
+        <v>0.03994162452950079</v>
       </c>
       <c r="F16">
-        <v>3.156531086543367</v>
+        <v>1.285325881201445</v>
       </c>
       <c r="G16">
-        <v>0.000853239305388831</v>
+        <v>1.010223854328515</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01078582055641863</v>
       </c>
       <c r="J16">
-        <v>0.07405292835383648</v>
+        <v>0.6961947090550353</v>
       </c>
       <c r="K16">
-        <v>2.142228879943815</v>
+        <v>0.7308480097132417</v>
       </c>
       <c r="L16">
-        <v>0.1628082893001306</v>
+        <v>0.05986797145395428</v>
       </c>
       <c r="M16">
-        <v>0.4140522372654232</v>
+        <v>1.432814634287809</v>
       </c>
       <c r="N16">
-        <v>2.899424760078787</v>
+        <v>0.2112048425657491</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3175280906715372</v>
+      </c>
+      <c r="P16">
+        <v>1.210645127922948</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.255039002674152</v>
+        <v>1.438022418361271</v>
       </c>
       <c r="C17">
-        <v>0.1607793913029383</v>
+        <v>0.1542994727062563</v>
       </c>
       <c r="D17">
-        <v>0.001958709529774616</v>
+        <v>0.05591473000411185</v>
       </c>
       <c r="E17">
-        <v>0.02104953679922517</v>
+        <v>0.03963272811814811</v>
       </c>
       <c r="F17">
-        <v>3.102311016412827</v>
+        <v>1.267873498482686</v>
       </c>
       <c r="G17">
-        <v>0.000856196893842582</v>
+        <v>0.9955690349364801</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01219450963251845</v>
       </c>
       <c r="J17">
-        <v>0.07428984466237587</v>
+        <v>0.691726147373231</v>
       </c>
       <c r="K17">
-        <v>2.058701271058823</v>
+        <v>0.7259879900546622</v>
       </c>
       <c r="L17">
-        <v>0.1583187695842199</v>
+        <v>0.06010338043827979</v>
       </c>
       <c r="M17">
-        <v>0.3997062858451272</v>
+        <v>1.373178918633016</v>
       </c>
       <c r="N17">
-        <v>2.899742467244764</v>
+        <v>0.205465236217222</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3054854339426143</v>
+      </c>
+      <c r="P17">
+        <v>1.227963119377325</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.206147115162651</v>
+        <v>1.405061602068457</v>
       </c>
       <c r="C18">
-        <v>0.1564465989610966</v>
+        <v>0.150046584172614</v>
       </c>
       <c r="D18">
-        <v>0.001967739527549028</v>
+        <v>0.05469043728616896</v>
       </c>
       <c r="E18">
-        <v>0.02100229040973378</v>
+        <v>0.03947697962167673</v>
       </c>
       <c r="F18">
-        <v>3.071610645331504</v>
+        <v>1.260041790625337</v>
       </c>
       <c r="G18">
-        <v>0.0008579078180548681</v>
+        <v>0.989308596189602</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0127546967164438</v>
       </c>
       <c r="J18">
-        <v>0.07443042870001015</v>
+        <v>0.6902571805965039</v>
       </c>
       <c r="K18">
-        <v>2.011009694644457</v>
+        <v>0.7248027783805995</v>
       </c>
       <c r="L18">
-        <v>0.155760298553119</v>
+        <v>0.06028420143403768</v>
       </c>
       <c r="M18">
-        <v>0.3915203712048339</v>
+        <v>1.339472081975572</v>
       </c>
       <c r="N18">
-        <v>2.900211348282966</v>
+        <v>0.2018582262948811</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2987320325529765</v>
+      </c>
+      <c r="P18">
+        <v>1.239035725419402</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.18965565000434</v>
+        <v>1.392218882288915</v>
       </c>
       <c r="C19">
-        <v>0.1549840106423659</v>
+        <v>0.1490604761747534</v>
       </c>
       <c r="D19">
-        <v>0.001970811365724856</v>
+        <v>0.05436039066347575</v>
       </c>
       <c r="E19">
-        <v>0.02098656035632906</v>
+        <v>0.03940954062206892</v>
       </c>
       <c r="F19">
-        <v>3.06129728357223</v>
+        <v>1.255816990665195</v>
       </c>
       <c r="G19">
-        <v>0.0008584888305048878</v>
+        <v>0.9856263276942059</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01318408188451681</v>
       </c>
       <c r="J19">
-        <v>0.07447876300231648</v>
+        <v>0.6889731030880881</v>
       </c>
       <c r="K19">
-        <v>1.994920406100789</v>
+        <v>0.723217808789741</v>
       </c>
       <c r="L19">
-        <v>0.1548980209411752</v>
+        <v>0.06031177695653156</v>
       </c>
       <c r="M19">
-        <v>0.3887596609509885</v>
+        <v>1.327659676685244</v>
       </c>
       <c r="N19">
-        <v>2.90041828744458</v>
+        <v>0.2009003874325401</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2963278162598755</v>
+      </c>
+      <c r="P19">
+        <v>1.242019768195021</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.264117967945595</v>
+        <v>1.444702261777564</v>
       </c>
       <c r="C20">
-        <v>0.1615834422309774</v>
+        <v>0.1549342731598813</v>
       </c>
       <c r="D20">
-        <v>0.00195704600035107</v>
+        <v>0.05611306917467118</v>
       </c>
       <c r="E20">
-        <v>0.02105840854485397</v>
+        <v>0.03966690466922351</v>
       </c>
       <c r="F20">
-        <v>3.108032065849187</v>
+        <v>1.269879377971236</v>
       </c>
       <c r="G20">
-        <v>0.0008558810491043214</v>
+        <v>0.9972777243527844</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01201503207534049</v>
       </c>
       <c r="J20">
-        <v>0.07426417630615312</v>
+        <v>0.6922760123611482</v>
       </c>
       <c r="K20">
-        <v>2.06755607196115</v>
+        <v>0.7266202478781949</v>
       </c>
       <c r="L20">
-        <v>0.1587941994079003</v>
+        <v>0.06008160427589448</v>
       </c>
       <c r="M20">
-        <v>0.4012265743326537</v>
+        <v>1.379562488533338</v>
       </c>
       <c r="N20">
-        <v>2.899678801191627</v>
+        <v>0.2060468422840387</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3067778879573098</v>
+      </c>
+      <c r="P20">
+        <v>1.226188367260868</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.518955775856114</v>
+        <v>1.62342059714112</v>
       </c>
       <c r="C21">
-        <v>0.184094487082703</v>
+        <v>0.1744087162979895</v>
       </c>
       <c r="D21">
-        <v>0.001912356928182035</v>
+        <v>0.0619591637575212</v>
       </c>
       <c r="E21">
-        <v>0.02131885930389998</v>
+        <v>0.04057747485332719</v>
       </c>
       <c r="F21">
-        <v>3.271021298918441</v>
+        <v>1.320663967442712</v>
       </c>
       <c r="G21">
-        <v>0.0008472332300110683</v>
+        <v>1.03970774795151</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.008435518311115331</v>
       </c>
       <c r="J21">
-        <v>0.07359524921329452</v>
+        <v>0.7051183835719002</v>
       </c>
       <c r="K21">
-        <v>2.315959175190045</v>
+        <v>0.7402055938165617</v>
       </c>
       <c r="L21">
-        <v>0.1721772739826335</v>
+        <v>0.05936599189106229</v>
       </c>
       <c r="M21">
-        <v>0.4439231659967575</v>
+        <v>1.55520281655572</v>
       </c>
       <c r="N21">
-        <v>2.900687238193427</v>
+        <v>0.2233945965706852</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3422387530491164</v>
+      </c>
+      <c r="P21">
+        <v>1.175120907047948</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.689359684110627</v>
+        <v>1.743725618254246</v>
       </c>
       <c r="C22">
-        <v>0.1990965195811327</v>
+        <v>0.1865261552385533</v>
       </c>
       <c r="D22">
-        <v>0.001885048629779007</v>
+        <v>0.0656694873502417</v>
       </c>
       <c r="E22">
-        <v>0.02150389657638918</v>
+        <v>0.0412220379940873</v>
       </c>
       <c r="F22">
-        <v>3.382383160225061</v>
+        <v>1.358108108348731</v>
       </c>
       <c r="G22">
-        <v>0.0008416590131085595</v>
+        <v>1.07148557385942</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00621309293453276</v>
       </c>
       <c r="J22">
-        <v>0.07319802085540061</v>
+        <v>0.7156105215681521</v>
       </c>
       <c r="K22">
-        <v>2.481932111443967</v>
+        <v>0.7518708198371087</v>
       </c>
       <c r="L22">
-        <v>0.1811615396448687</v>
+        <v>0.05897294752975846</v>
       </c>
       <c r="M22">
-        <v>0.4724950090870692</v>
+        <v>1.671421934808876</v>
       </c>
       <c r="N22">
-        <v>2.904125974675878</v>
+        <v>0.2345409124363727</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3658118282546425</v>
+      </c>
+      <c r="P22">
+        <v>1.1440572989702</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.598033522622472</v>
+        <v>1.682453206019545</v>
       </c>
       <c r="C23">
-        <v>0.1910605710476005</v>
+        <v>0.1792486170158156</v>
       </c>
       <c r="D23">
-        <v>0.001899397931108382</v>
+        <v>0.06353895618254057</v>
       </c>
       <c r="E23">
-        <v>0.0214037409304213</v>
+        <v>0.04090237821863596</v>
       </c>
       <c r="F23">
-        <v>3.32247802795564</v>
+        <v>1.340782977574207</v>
       </c>
       <c r="G23">
-        <v>0.0008446274657012252</v>
+        <v>1.05717811657631</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.007002427770697928</v>
       </c>
       <c r="J23">
-        <v>0.07340629520287045</v>
+        <v>0.7113399496496271</v>
       </c>
       <c r="K23">
-        <v>2.392991725931836</v>
+        <v>0.7476702748793471</v>
       </c>
       <c r="L23">
-        <v>0.1763433959665974</v>
+        <v>0.05923979626788967</v>
       </c>
       <c r="M23">
-        <v>0.457180328825487</v>
+        <v>1.6100562458723</v>
       </c>
       <c r="N23">
-        <v>2.902024404429369</v>
+        <v>0.2281142236541314</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3534268073593552</v>
+      </c>
+      <c r="P23">
+        <v>1.161872836909676</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.260012271276594</v>
+        <v>1.44632203589461</v>
       </c>
       <c r="C24">
-        <v>0.1612198535645604</v>
+        <v>0.1534126748950655</v>
       </c>
       <c r="D24">
-        <v>0.001957797750216983</v>
+        <v>0.05579380913380305</v>
       </c>
       <c r="E24">
-        <v>0.02105439280743759</v>
+        <v>0.0396928961674945</v>
       </c>
       <c r="F24">
-        <v>3.10544411638972</v>
+        <v>1.273354225032904</v>
       </c>
       <c r="G24">
-        <v>0.0008560238094791273</v>
+        <v>1.000849645440567</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01149629790007456</v>
       </c>
       <c r="J24">
-        <v>0.07427576735070396</v>
+        <v>0.6942174593588959</v>
       </c>
       <c r="K24">
-        <v>2.063551795311952</v>
+        <v>0.7296134649706048</v>
       </c>
       <c r="L24">
-        <v>0.1585791874254241</v>
+        <v>0.06018443582939081</v>
       </c>
       <c r="M24">
-        <v>0.4005390604251815</v>
+        <v>1.377804494644693</v>
       </c>
       <c r="N24">
-        <v>2.899706695558677</v>
+        <v>0.2050750612731633</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3065247435593719</v>
+      </c>
+      <c r="P24">
+        <v>1.229131635268661</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.909540844262665</v>
+        <v>1.193010229311085</v>
       </c>
       <c r="C25">
-        <v>0.1300387324176313</v>
+        <v>0.1262913452793413</v>
       </c>
       <c r="D25">
-        <v>0.002024494642450136</v>
+        <v>0.04760073054939085</v>
       </c>
       <c r="E25">
-        <v>0.02073732061320932</v>
+        <v>0.03847912804756604</v>
       </c>
       <c r="F25">
-        <v>2.889660667698379</v>
+        <v>1.206013892214855</v>
       </c>
       <c r="G25">
-        <v>0.000868695819744896</v>
+        <v>0.9447287464679732</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01823862352758265</v>
       </c>
       <c r="J25">
-        <v>0.07537793627650657</v>
+        <v>0.6783834166575389</v>
       </c>
       <c r="K25">
-        <v>1.721393491688019</v>
+        <v>0.7126472075750527</v>
       </c>
       <c r="L25">
-        <v>0.1403145832645478</v>
+        <v>0.061265619237723</v>
       </c>
       <c r="M25">
-        <v>0.3419067465798307</v>
+        <v>1.129649931601847</v>
       </c>
       <c r="N25">
-        <v>2.908038888284707</v>
+        <v>0.1813056945892271</v>
       </c>
       <c r="O25">
+        <v>0.2565850704840216</v>
+      </c>
+      <c r="P25">
+        <v>1.305595625964255</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.014294084747718</v>
+        <v>0.9402878777386547</v>
       </c>
       <c r="C2">
-        <v>0.1049429364066725</v>
+        <v>0.1155577825396534</v>
       </c>
       <c r="D2">
-        <v>0.04133844495879657</v>
+        <v>0.04587573512493037</v>
       </c>
       <c r="E2">
-        <v>0.03772299837395465</v>
+        <v>0.0361078209804182</v>
       </c>
       <c r="F2">
-        <v>1.167344317427009</v>
+        <v>1.055147832515949</v>
       </c>
       <c r="G2">
-        <v>0.9136458439189994</v>
+        <v>0.8058031733847741</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0237456048798288</v>
+        <v>0.01730479140199037</v>
       </c>
       <c r="J2">
-        <v>0.6721896065272404</v>
+        <v>0.6090285486722991</v>
       </c>
       <c r="K2">
-        <v>0.7072073506534977</v>
+        <v>0.6110533677940069</v>
       </c>
       <c r="L2">
-        <v>0.0622648929741878</v>
+        <v>0.2469948483082867</v>
       </c>
       <c r="M2">
-        <v>0.9500908231505321</v>
+        <v>0.2115817491586505</v>
       </c>
       <c r="N2">
-        <v>0.1635382278434889</v>
+        <v>0.05653480030987712</v>
       </c>
       <c r="O2">
-        <v>0.2207590210706201</v>
+        <v>0.937683827012961</v>
       </c>
       <c r="P2">
-        <v>1.368659897087852</v>
+        <v>0.1802786235758234</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.214363623531284</v>
+      </c>
+      <c r="R2">
+        <v>1.260997735453694</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.889363419487097</v>
+        <v>0.8254851305258342</v>
       </c>
       <c r="C3">
-        <v>0.09179136886974959</v>
+        <v>0.09915825591370719</v>
       </c>
       <c r="D3">
-        <v>0.0373664460020251</v>
+        <v>0.0413804622568108</v>
       </c>
       <c r="E3">
-        <v>0.0372175740698788</v>
+        <v>0.03568505748605322</v>
       </c>
       <c r="F3">
-        <v>1.139557456629511</v>
+        <v>1.033703473549473</v>
       </c>
       <c r="G3">
-        <v>0.8906595312868575</v>
+        <v>0.7929949220699086</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02879527575427643</v>
+        <v>0.02104165242931799</v>
       </c>
       <c r="J3">
-        <v>0.6672129994893083</v>
+        <v>0.6011400630331707</v>
       </c>
       <c r="K3">
-        <v>0.7016946352342757</v>
+        <v>0.609594775878751</v>
       </c>
       <c r="L3">
-        <v>0.06288975475893732</v>
+        <v>0.2502183580618578</v>
       </c>
       <c r="M3">
-        <v>0.8280803563499148</v>
+        <v>0.2089970023466954</v>
       </c>
       <c r="N3">
-        <v>0.1525892191842857</v>
+        <v>0.05715046225977982</v>
       </c>
       <c r="O3">
-        <v>0.1964168531561477</v>
+        <v>0.8176532975743669</v>
       </c>
       <c r="P3">
-        <v>1.411282055170762</v>
+        <v>0.1678417986196621</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.190516664235858</v>
+      </c>
+      <c r="R3">
+        <v>1.302139890164572</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8126144256709154</v>
+        <v>0.7546883030519211</v>
       </c>
       <c r="C4">
-        <v>0.0838410589376366</v>
+        <v>0.08928941882749086</v>
       </c>
       <c r="D4">
-        <v>0.03496533313757766</v>
+        <v>0.03866936240164165</v>
       </c>
       <c r="E4">
-        <v>0.03692713551968829</v>
+        <v>0.03544396468939848</v>
       </c>
       <c r="F4">
-        <v>1.123453377795933</v>
+        <v>1.021245275896767</v>
       </c>
       <c r="G4">
-        <v>0.8773246105482855</v>
+        <v>0.7858858220079554</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.03229880115196027</v>
+        <v>0.02365584481245886</v>
       </c>
       <c r="J4">
-        <v>0.6646494224821851</v>
+        <v>0.5964257861180471</v>
       </c>
       <c r="K4">
-        <v>0.6987368665302789</v>
+        <v>0.608961230094927</v>
       </c>
       <c r="L4">
-        <v>0.06328665020778868</v>
+        <v>0.2521621251205559</v>
       </c>
       <c r="M4">
-        <v>0.7533875460347019</v>
+        <v>0.2081687962719059</v>
       </c>
       <c r="N4">
-        <v>0.1460989058122095</v>
+        <v>0.05753871024479773</v>
       </c>
       <c r="O4">
-        <v>0.1815590314562314</v>
+        <v>0.7440313223232806</v>
       </c>
       <c r="P4">
-        <v>1.438283028181733</v>
+        <v>0.1604738788548801</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1759274125968986</v>
+      </c>
+      <c r="R4">
+        <v>1.328175206622026</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7806040168433412</v>
+        <v>0.7250712581675032</v>
       </c>
       <c r="C5">
-        <v>0.08081954539342462</v>
+        <v>0.0855245975198784</v>
       </c>
       <c r="D5">
-        <v>0.03403239375357003</v>
+        <v>0.03761397098475783</v>
       </c>
       <c r="E5">
-        <v>0.03680704510775268</v>
+        <v>0.03534401731031611</v>
       </c>
       <c r="F5">
-        <v>1.116411977458732</v>
+        <v>1.015673236942739</v>
       </c>
       <c r="G5">
-        <v>0.871373183906158</v>
+        <v>0.7825261931038909</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03392770372092802</v>
+        <v>0.02491135149983847</v>
       </c>
       <c r="J5">
-        <v>0.6633659865446333</v>
+        <v>0.5941879310347957</v>
       </c>
       <c r="K5">
-        <v>0.6970985353470134</v>
+        <v>0.6082811001620385</v>
       </c>
       <c r="L5">
-        <v>0.06343531469122166</v>
+        <v>0.2527178830750962</v>
       </c>
       <c r="M5">
-        <v>0.7228261151586537</v>
+        <v>0.2078845432821552</v>
       </c>
       <c r="N5">
-        <v>0.143623145171496</v>
+        <v>0.05768597857879021</v>
       </c>
       <c r="O5">
-        <v>0.1754743246692883</v>
+        <v>0.7138753386340966</v>
       </c>
       <c r="P5">
-        <v>1.449084982094035</v>
+        <v>0.1576518019247786</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1699447377136316</v>
+      </c>
+      <c r="R5">
+        <v>1.338649749406613</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7744088134084564</v>
+        <v>0.7193093194784694</v>
       </c>
       <c r="C6">
-        <v>0.08055301963445061</v>
+        <v>0.0851601443703629</v>
       </c>
       <c r="D6">
-        <v>0.03392264783391852</v>
+        <v>0.03748534859732899</v>
       </c>
       <c r="E6">
-        <v>0.03677924376781228</v>
+        <v>0.0353199997490643</v>
       </c>
       <c r="F6">
-        <v>1.114387440538174</v>
+        <v>1.013943348433315</v>
       </c>
       <c r="G6">
-        <v>0.8695342642820805</v>
+        <v>0.7811917001373274</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03433711108654247</v>
+        <v>0.0252703562598402</v>
       </c>
       <c r="J6">
-        <v>0.6627212051896407</v>
+        <v>0.5933928171835419</v>
       </c>
       <c r="K6">
-        <v>0.6961763413270923</v>
+        <v>0.6075788808486315</v>
       </c>
       <c r="L6">
-        <v>0.06344018713756139</v>
+        <v>0.2525326952577664</v>
       </c>
       <c r="M6">
-        <v>0.7175464638538358</v>
+        <v>0.2076820103224755</v>
       </c>
       <c r="N6">
-        <v>0.1433537812533174</v>
+        <v>0.05769411614948838</v>
       </c>
       <c r="O6">
-        <v>0.1744035735775498</v>
+        <v>0.7086650467491467</v>
       </c>
       <c r="P6">
-        <v>1.450396031875929</v>
+        <v>0.1573283682105497</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1688917499105926</v>
+      </c>
+      <c r="R6">
+        <v>1.340004113421129</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8097739091264202</v>
+        <v>0.7514305463386108</v>
       </c>
       <c r="C7">
-        <v>0.08443939795797917</v>
+        <v>0.08961640429654949</v>
       </c>
       <c r="D7">
-        <v>0.03507463336180194</v>
+        <v>0.03892635886302287</v>
       </c>
       <c r="E7">
-        <v>0.03690322883431119</v>
+        <v>0.03545068053445011</v>
       </c>
       <c r="F7">
-        <v>1.120984975415368</v>
+        <v>1.017606095118133</v>
       </c>
       <c r="G7">
-        <v>0.8748905643286662</v>
+        <v>0.7867144969419684</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0326648233145308</v>
+        <v>0.02406697775601074</v>
       </c>
       <c r="J7">
-        <v>0.6634346865031375</v>
+        <v>0.5898584248092931</v>
       </c>
       <c r="K7">
-        <v>0.6969232198206363</v>
+        <v>0.6066193420190658</v>
       </c>
       <c r="L7">
-        <v>0.06323433964344982</v>
+        <v>0.2511020823656196</v>
       </c>
       <c r="M7">
-        <v>0.7524054183239741</v>
+        <v>0.2074865591993351</v>
       </c>
       <c r="N7">
-        <v>0.1464432605351647</v>
+        <v>0.05749263934710491</v>
       </c>
       <c r="O7">
-        <v>0.1813079560253392</v>
+        <v>0.7420132835762274</v>
       </c>
       <c r="P7">
-        <v>1.437092149713013</v>
+        <v>0.1607914499578627</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1755819239016887</v>
+      </c>
+      <c r="R7">
+        <v>1.326722686918425</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9679986805471117</v>
+        <v>0.8958186809226447</v>
       </c>
       <c r="C8">
-        <v>0.1012337359567113</v>
+        <v>0.1096971719181283</v>
       </c>
       <c r="D8">
-        <v>0.04012253965339596</v>
+        <v>0.04497196893520794</v>
       </c>
       <c r="E8">
-        <v>0.03751511106107763</v>
+        <v>0.03602751070303611</v>
       </c>
       <c r="F8">
-        <v>1.154426092171036</v>
+        <v>1.040252062440921</v>
       </c>
       <c r="G8">
-        <v>0.90244517955162</v>
+        <v>0.8085100175268565</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02581117959776336</v>
+        <v>0.01902484021375628</v>
       </c>
       <c r="J8">
-        <v>0.6687931244969576</v>
+        <v>0.5871860426465076</v>
       </c>
       <c r="K8">
-        <v>0.7028551199678859</v>
+        <v>0.6060338570990282</v>
       </c>
       <c r="L8">
-        <v>0.06240744379994823</v>
+        <v>0.2462075619413753</v>
       </c>
       <c r="M8">
-        <v>0.9072011197591792</v>
+        <v>0.2090975543555729</v>
       </c>
       <c r="N8">
-        <v>0.1602139790794368</v>
+        <v>0.0566780721829252</v>
       </c>
       <c r="O8">
-        <v>0.2121191647757996</v>
+        <v>0.8919902838574387</v>
       </c>
       <c r="P8">
-        <v>1.381486744350887</v>
+        <v>0.1763411664660524</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2055722196381673</v>
+      </c>
+      <c r="R8">
+        <v>1.272087143709363</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.282638691238787</v>
+        <v>1.182902956371976</v>
       </c>
       <c r="C9">
-        <v>0.13416382021326</v>
+        <v>0.1507492212488728</v>
       </c>
       <c r="D9">
-        <v>0.05011999478765006</v>
+        <v>0.05647734111681757</v>
       </c>
       <c r="E9">
-        <v>0.03891621762673658</v>
+        <v>0.03723952728174496</v>
       </c>
       <c r="F9">
-        <v>1.232261074046249</v>
+        <v>1.099426669099529</v>
       </c>
       <c r="G9">
-        <v>0.967260489164758</v>
+        <v>0.8503908274584688</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01519903242228793</v>
+        <v>0.01114962986884116</v>
       </c>
       <c r="J9">
-        <v>0.6855066309294244</v>
+        <v>0.6042008022132705</v>
       </c>
       <c r="K9">
-        <v>0.721226040440321</v>
+        <v>0.612522375425435</v>
       </c>
       <c r="L9">
-        <v>0.06098474404960363</v>
+        <v>0.2387295023003126</v>
       </c>
       <c r="M9">
-        <v>1.214050005956096</v>
+        <v>0.2200420607184164</v>
       </c>
       <c r="N9">
-        <v>0.1884961950277599</v>
+        <v>0.05524982090810759</v>
       </c>
       <c r="O9">
-        <v>0.2736464619723336</v>
+        <v>1.191926744270972</v>
       </c>
       <c r="P9">
-        <v>1.281477663226561</v>
+        <v>0.2084926730066385</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2655402681644041</v>
+      </c>
+      <c r="R9">
+        <v>1.174906155648783</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.513041505974144</v>
+        <v>1.388177471614512</v>
       </c>
       <c r="C10">
-        <v>0.1596294387536119</v>
+        <v>0.1805815255362972</v>
       </c>
       <c r="D10">
-        <v>0.05774673229724669</v>
+        <v>0.06616349116151099</v>
       </c>
       <c r="E10">
-        <v>0.0400383707581522</v>
+        <v>0.03838937719830327</v>
       </c>
       <c r="F10">
-        <v>1.293805456141811</v>
+        <v>1.138223833252695</v>
       </c>
       <c r="G10">
-        <v>1.018327849854515</v>
+        <v>0.902850193288657</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.009815075604409529</v>
+        <v>0.007360784981512047</v>
       </c>
       <c r="J10">
-        <v>0.6999455962501742</v>
+        <v>0.5873814138746809</v>
       </c>
       <c r="K10">
-        <v>0.7362530228849238</v>
+        <v>0.6140084226759441</v>
       </c>
       <c r="L10">
-        <v>0.05997821443903728</v>
+        <v>0.2313921904387861</v>
       </c>
       <c r="M10">
-        <v>1.441301140367756</v>
+        <v>0.2300267070469566</v>
       </c>
       <c r="N10">
-        <v>0.2108188717020454</v>
+        <v>0.05421761319609608</v>
       </c>
       <c r="O10">
-        <v>0.3193952739432433</v>
+        <v>1.406770645454827</v>
       </c>
       <c r="P10">
-        <v>1.211823687372739</v>
+        <v>0.2336392453674989</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3093158333017243</v>
+      </c>
+      <c r="R10">
+        <v>1.104894308048028</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.613958224343577</v>
+        <v>1.471461804397734</v>
       </c>
       <c r="C11">
-        <v>0.172566086648672</v>
+        <v>0.1920966134128008</v>
       </c>
       <c r="D11">
-        <v>0.06147255780386018</v>
+        <v>0.07247018368638436</v>
       </c>
       <c r="E11">
-        <v>0.04053621887482706</v>
+        <v>0.03921550534352214</v>
       </c>
       <c r="F11">
-        <v>1.319303147542968</v>
+        <v>1.139788215586321</v>
       </c>
       <c r="G11">
-        <v>1.03888158664212</v>
+        <v>0.9577946377989832</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008372247191923421</v>
+        <v>0.006654480846116861</v>
       </c>
       <c r="J11">
-        <v>0.705250470195395</v>
+        <v>0.5310057794597611</v>
       </c>
       <c r="K11">
-        <v>0.7407897949486255</v>
+        <v>0.6055649030293324</v>
       </c>
       <c r="L11">
-        <v>0.05945360210115602</v>
+        <v>0.2248139534272866</v>
       </c>
       <c r="M11">
-        <v>1.544307950281677</v>
+        <v>0.231519981041906</v>
       </c>
       <c r="N11">
-        <v>0.2219294787225152</v>
+        <v>0.05367853388579391</v>
       </c>
       <c r="O11">
-        <v>0.3400844611376996</v>
+        <v>1.492519509425165</v>
       </c>
       <c r="P11">
-        <v>1.179331835473828</v>
+        <v>0.245719081233446</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3279635687582427</v>
+      </c>
+      <c r="R11">
+        <v>1.069109464955968</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.654391722801336</v>
+        <v>1.504228368408718</v>
       </c>
       <c r="C12">
-        <v>0.1769312473667526</v>
+        <v>0.1954100568531629</v>
       </c>
       <c r="D12">
-        <v>0.06278460469403058</v>
+        <v>0.07497997910363097</v>
       </c>
       <c r="E12">
-        <v>0.04074765998133323</v>
+        <v>0.03959400400683144</v>
       </c>
       <c r="F12">
-        <v>1.331215737695175</v>
+        <v>1.140661225269355</v>
       </c>
       <c r="G12">
-        <v>1.048874272153171</v>
+        <v>0.9855065060028494</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.007658787882933282</v>
+        <v>0.00616390023779001</v>
       </c>
       <c r="J12">
-        <v>0.7083830158373701</v>
+        <v>0.5065182408801974</v>
       </c>
       <c r="K12">
-        <v>0.7441304249961576</v>
+        <v>0.6028624836679271</v>
       </c>
       <c r="L12">
-        <v>0.05930026945109201</v>
+        <v>0.2225312903626069</v>
       </c>
       <c r="M12">
-        <v>1.583951515687119</v>
+        <v>0.2323285900495655</v>
       </c>
       <c r="N12">
-        <v>0.2258571775919762</v>
+        <v>0.05350734233791243</v>
       </c>
       <c r="O12">
-        <v>0.3481023946010069</v>
+        <v>1.52408294275952</v>
       </c>
       <c r="P12">
-        <v>1.1681737934152</v>
+        <v>0.2499578942678369</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3350488608571425</v>
+      </c>
+      <c r="R12">
+        <v>1.055985560839829</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.646121292982599</v>
+        <v>1.497619817521098</v>
       </c>
       <c r="C13">
-        <v>0.1758725750738677</v>
+        <v>0.1945861187135449</v>
       </c>
       <c r="D13">
-        <v>0.06248004087437664</v>
+        <v>0.07440532718014481</v>
       </c>
       <c r="E13">
-        <v>0.04070586479987881</v>
+        <v>0.03951402560421968</v>
       </c>
       <c r="F13">
-        <v>1.329052685082601</v>
+        <v>1.140912950512899</v>
       </c>
       <c r="G13">
-        <v>1.047122629525916</v>
+        <v>0.9796881173096637</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.007756570517881478</v>
+        <v>0.00620605126381335</v>
       </c>
       <c r="J13">
-        <v>0.7079093930176299</v>
+        <v>0.5120816433087327</v>
       </c>
       <c r="K13">
-        <v>0.7437149111457373</v>
+        <v>0.6037409722999172</v>
       </c>
       <c r="L13">
-        <v>0.05934183683025918</v>
+        <v>0.2231237168798472</v>
       </c>
       <c r="M13">
-        <v>1.575516190575996</v>
+        <v>0.2322727300118466</v>
       </c>
       <c r="N13">
-        <v>0.2249422860851524</v>
+        <v>0.05355059888623082</v>
       </c>
       <c r="O13">
-        <v>0.3464058131429937</v>
+        <v>1.517453013220631</v>
       </c>
       <c r="P13">
-        <v>1.170766100708583</v>
+        <v>0.2489762569251326</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3335590661312509</v>
+      </c>
+      <c r="R13">
+        <v>1.058936915913153</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.617470391023488</v>
+        <v>1.474348864112159</v>
       </c>
       <c r="C14">
-        <v>0.1728748182036242</v>
+        <v>0.1923225937893278</v>
       </c>
       <c r="D14">
-        <v>0.06157114977515477</v>
+        <v>0.07266198397968537</v>
       </c>
       <c r="E14">
-        <v>0.04055519990512479</v>
+        <v>0.0392472453296584</v>
       </c>
       <c r="F14">
-        <v>1.32045397311505</v>
+        <v>1.140049192917331</v>
       </c>
       <c r="G14">
-        <v>1.039873607125855</v>
+        <v>0.9601320374431168</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.008289334768049272</v>
+        <v>0.006586644785166129</v>
       </c>
       <c r="J14">
-        <v>0.7055934913815634</v>
+        <v>0.5291242525304938</v>
       </c>
       <c r="K14">
-        <v>0.7411936605277987</v>
+        <v>0.6054700263089927</v>
       </c>
       <c r="L14">
-        <v>0.05944462018462993</v>
+        <v>0.2246697939874807</v>
       </c>
       <c r="M14">
-        <v>1.547612850427441</v>
+        <v>0.231636976447863</v>
       </c>
       <c r="N14">
-        <v>0.2222232467482144</v>
+        <v>0.05366717308110047</v>
       </c>
       <c r="O14">
-        <v>0.3407568907841778</v>
+        <v>1.495189061643231</v>
       </c>
       <c r="P14">
-        <v>1.178494338915666</v>
+        <v>0.2460385943956993</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3285619626050362</v>
+      </c>
+      <c r="R14">
+        <v>1.068084571892932</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.599062812187412</v>
+        <v>1.459177250256516</v>
       </c>
       <c r="C15">
-        <v>0.1712738404895617</v>
+        <v>0.1911380699145298</v>
       </c>
       <c r="D15">
-        <v>0.06105809339813817</v>
+        <v>0.07167086733458206</v>
       </c>
       <c r="E15">
-        <v>0.04045569714051034</v>
+        <v>0.03908286417013329</v>
       </c>
       <c r="F15">
-        <v>1.314403426230783</v>
+        <v>1.138581528610217</v>
       </c>
       <c r="G15">
-        <v>1.034652647420003</v>
+        <v>0.9480838240621523</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.008734195253101262</v>
+        <v>0.006953168872434468</v>
       </c>
       <c r="J15">
-        <v>0.7037832871570942</v>
+        <v>0.5387907129845644</v>
       </c>
       <c r="K15">
-        <v>0.7390547226149593</v>
+        <v>0.6059051081494289</v>
       </c>
       <c r="L15">
-        <v>0.05949079854141281</v>
+        <v>0.2254027826548111</v>
       </c>
       <c r="M15">
-        <v>1.530324516874401</v>
+        <v>0.2310034541980848</v>
       </c>
       <c r="N15">
-        <v>0.2206958355811253</v>
+        <v>0.05372594410727949</v>
       </c>
       <c r="O15">
-        <v>0.337238624923053</v>
+        <v>1.48116094884935</v>
       </c>
       <c r="P15">
-        <v>1.182859888589711</v>
+        <v>0.2443748523198792</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3254245990237123</v>
+      </c>
+      <c r="R15">
+        <v>1.073419934267822</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.499190357734477</v>
+        <v>1.375801298411773</v>
       </c>
       <c r="C16">
-        <v>0.1607150684777281</v>
+        <v>0.1819305080424698</v>
       </c>
       <c r="D16">
-        <v>0.05786243046085104</v>
+        <v>0.06615825459688551</v>
       </c>
       <c r="E16">
-        <v>0.03994162452950079</v>
+        <v>0.03828030684095829</v>
       </c>
       <c r="F16">
-        <v>1.285325881201445</v>
+        <v>1.13168885346056</v>
       </c>
       <c r="G16">
-        <v>1.010223854328515</v>
+        <v>0.8936739959545008</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01078582055641863</v>
+        <v>0.008413327405057736</v>
       </c>
       <c r="J16">
-        <v>0.6961947090550353</v>
+        <v>0.5874878787667797</v>
       </c>
       <c r="K16">
-        <v>0.7308480097132417</v>
+        <v>0.6100356634904642</v>
       </c>
       <c r="L16">
-        <v>0.05986797145395428</v>
+        <v>0.2302060073746368</v>
       </c>
       <c r="M16">
-        <v>1.432814634287809</v>
+        <v>0.2281600431925099</v>
       </c>
       <c r="N16">
-        <v>0.2112048425657491</v>
+        <v>0.05414395675697214</v>
       </c>
       <c r="O16">
-        <v>0.3175280906715372</v>
+        <v>1.399268277508952</v>
       </c>
       <c r="P16">
-        <v>1.210645127922948</v>
+        <v>0.2339882816417287</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3075785047879549</v>
+      </c>
+      <c r="R16">
+        <v>1.105004945650217</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.438022418361271</v>
+        <v>1.323307336173485</v>
       </c>
       <c r="C17">
-        <v>0.1542994727062563</v>
+        <v>0.1755773933225413</v>
       </c>
       <c r="D17">
-        <v>0.05591473000411185</v>
+        <v>0.06315588059626265</v>
       </c>
       <c r="E17">
-        <v>0.03963272811814811</v>
+        <v>0.03786500658079817</v>
       </c>
       <c r="F17">
-        <v>1.267873498482686</v>
+        <v>1.124788807815236</v>
       </c>
       <c r="G17">
-        <v>0.9955690349364801</v>
+        <v>0.8682829629900795</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01219450963251845</v>
+        <v>0.009434460735464612</v>
       </c>
       <c r="J17">
-        <v>0.691726147373231</v>
+        <v>0.6083428640240101</v>
       </c>
       <c r="K17">
-        <v>0.7259879900546622</v>
+        <v>0.6111640910482805</v>
       </c>
       <c r="L17">
-        <v>0.06010338043827979</v>
+        <v>0.2326685367490597</v>
       </c>
       <c r="M17">
-        <v>1.373178918633016</v>
+        <v>0.2259872981856752</v>
       </c>
       <c r="N17">
-        <v>0.205465236217222</v>
+        <v>0.0544000157363369</v>
       </c>
       <c r="O17">
-        <v>0.3054854339426143</v>
+        <v>1.346637994399714</v>
       </c>
       <c r="P17">
-        <v>1.227963119377325</v>
+        <v>0.2276244994424417</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2964212874516221</v>
+      </c>
+      <c r="R17">
+        <v>1.123895435273363</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.405061602068457</v>
+        <v>1.294705422436948</v>
       </c>
       <c r="C18">
-        <v>0.150046584172614</v>
+        <v>0.1710145992967256</v>
       </c>
       <c r="D18">
-        <v>0.05469043728616896</v>
+        <v>0.0614455967215477</v>
       </c>
       <c r="E18">
-        <v>0.03947697962167673</v>
+        <v>0.03767081249548987</v>
       </c>
       <c r="F18">
-        <v>1.260041790625337</v>
+        <v>1.121776663015439</v>
       </c>
       <c r="G18">
-        <v>0.989308596189602</v>
+        <v>0.8581973941737857</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0127546967164438</v>
+        <v>0.009717890092856507</v>
       </c>
       <c r="J18">
-        <v>0.6902571805965039</v>
+        <v>0.6176050794830701</v>
       </c>
       <c r="K18">
-        <v>0.7248027783805995</v>
+        <v>0.6126640454010968</v>
       </c>
       <c r="L18">
-        <v>0.06028420143403768</v>
+        <v>0.2343992518393421</v>
       </c>
       <c r="M18">
-        <v>1.339472081975572</v>
+        <v>0.2251140151540341</v>
       </c>
       <c r="N18">
-        <v>0.2018582262948811</v>
+        <v>0.05458009427487376</v>
       </c>
       <c r="O18">
-        <v>0.2987320325529765</v>
+        <v>1.316044215560623</v>
       </c>
       <c r="P18">
-        <v>1.239035725419402</v>
+        <v>0.2236234675440159</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2900827087937827</v>
+      </c>
+      <c r="R18">
+        <v>1.135266645318431</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.392218882288915</v>
+        <v>1.283352209702457</v>
       </c>
       <c r="C19">
-        <v>0.1490604761747534</v>
+        <v>0.1699352514319941</v>
       </c>
       <c r="D19">
-        <v>0.05436039066347575</v>
+        <v>0.06097501032374453</v>
       </c>
       <c r="E19">
-        <v>0.03940954062206892</v>
+        <v>0.03759518517443006</v>
       </c>
       <c r="F19">
-        <v>1.255816990665195</v>
+        <v>1.119136631591402</v>
       </c>
       <c r="G19">
-        <v>0.9856263276942059</v>
+        <v>0.8537877903314808</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01318408188451681</v>
+        <v>0.01008790845831964</v>
       </c>
       <c r="J19">
-        <v>0.6889731030880881</v>
+        <v>0.6193604997299786</v>
       </c>
       <c r="K19">
-        <v>0.723217808789741</v>
+        <v>0.6120479254822584</v>
       </c>
       <c r="L19">
-        <v>0.06031177695653156</v>
+        <v>0.2345720386565233</v>
       </c>
       <c r="M19">
-        <v>1.327659676685244</v>
+        <v>0.224397171438941</v>
       </c>
       <c r="N19">
-        <v>0.2009003874325401</v>
+        <v>0.05461531442960688</v>
       </c>
       <c r="O19">
-        <v>0.2963278162598755</v>
+        <v>1.305148909446274</v>
       </c>
       <c r="P19">
-        <v>1.242019768195021</v>
+        <v>0.2225357000742463</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2878077691607359</v>
+      </c>
+      <c r="R19">
+        <v>1.138542429995827</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.444702261777564</v>
+        <v>1.329106541778998</v>
       </c>
       <c r="C20">
-        <v>0.1549342731598813</v>
+        <v>0.1762281834219834</v>
       </c>
       <c r="D20">
-        <v>0.05611306917467118</v>
+        <v>0.06345297569993136</v>
       </c>
       <c r="E20">
-        <v>0.03966690466922351</v>
+        <v>0.03790790363128771</v>
       </c>
       <c r="F20">
-        <v>1.269879377971236</v>
+        <v>1.125770066306586</v>
       </c>
       <c r="G20">
-        <v>0.9972777243527844</v>
+        <v>0.8708505084223219</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01201503207534049</v>
+        <v>0.009293265484219049</v>
       </c>
       <c r="J20">
-        <v>0.6922760123611482</v>
+        <v>0.6065707375275622</v>
       </c>
       <c r="K20">
-        <v>0.7266202478781949</v>
+        <v>0.6112013649334855</v>
       </c>
       <c r="L20">
-        <v>0.06008160427589448</v>
+        <v>0.2324634519042661</v>
       </c>
       <c r="M20">
-        <v>1.379562488533338</v>
+        <v>0.2262742345022382</v>
       </c>
       <c r="N20">
-        <v>0.2060468422840387</v>
+        <v>0.05437539141226644</v>
       </c>
       <c r="O20">
-        <v>0.3067778879573098</v>
+        <v>1.352368667148028</v>
       </c>
       <c r="P20">
-        <v>1.226188367260868</v>
+        <v>0.2282744347547379</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2976284987571276</v>
+      </c>
+      <c r="R20">
+        <v>1.121958127070624</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.62342059714112</v>
+        <v>1.476764540507673</v>
       </c>
       <c r="C21">
-        <v>0.1744087162979895</v>
+        <v>0.1924562164180514</v>
       </c>
       <c r="D21">
-        <v>0.0619591637575212</v>
+        <v>0.07387390045197151</v>
       </c>
       <c r="E21">
-        <v>0.04057747485332719</v>
+        <v>0.03941615801182685</v>
       </c>
       <c r="F21">
-        <v>1.320663967442712</v>
+        <v>1.133486098318542</v>
       </c>
       <c r="G21">
-        <v>1.03970774795151</v>
+        <v>0.9756307945555704</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.008435518311115331</v>
+        <v>0.006848433044453373</v>
       </c>
       <c r="J21">
-        <v>0.7051183835719002</v>
+        <v>0.5078315737936663</v>
       </c>
       <c r="K21">
-        <v>0.7402055938165617</v>
+        <v>0.6010538434142063</v>
       </c>
       <c r="L21">
-        <v>0.05936599189106229</v>
+        <v>0.2228628628545337</v>
       </c>
       <c r="M21">
-        <v>1.55520281655572</v>
+        <v>0.2302399093300274</v>
       </c>
       <c r="N21">
-        <v>0.2233945965706852</v>
+        <v>0.05358972979576393</v>
       </c>
       <c r="O21">
-        <v>0.3422387530491164</v>
+        <v>1.497185413471726</v>
       </c>
       <c r="P21">
-        <v>1.175120907047948</v>
+        <v>0.2471547991789294</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3294766409737946</v>
+      </c>
+      <c r="R21">
+        <v>1.063427509253307</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.743725618254246</v>
+        <v>1.5750532594069</v>
       </c>
       <c r="C22">
-        <v>0.1865261552385533</v>
+        <v>0.2018702801236003</v>
       </c>
       <c r="D22">
-        <v>0.0656694873502417</v>
+        <v>0.0809427150221822</v>
       </c>
       <c r="E22">
-        <v>0.0412220379940873</v>
+        <v>0.0405226754141168</v>
       </c>
       <c r="F22">
-        <v>1.358108108348731</v>
+        <v>1.139903101800613</v>
       </c>
       <c r="G22">
-        <v>1.07148557385942</v>
+        <v>1.05697753739878</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.00621309293453276</v>
+        <v>0.005163799364190425</v>
       </c>
       <c r="J22">
-        <v>0.7156105215681521</v>
+        <v>0.4482093265820808</v>
       </c>
       <c r="K22">
-        <v>0.7518708198371087</v>
+        <v>0.5955841611203283</v>
       </c>
       <c r="L22">
-        <v>0.05897294752975846</v>
+        <v>0.2171218378999491</v>
       </c>
       <c r="M22">
-        <v>1.671421934808876</v>
+        <v>0.2336382787662394</v>
       </c>
       <c r="N22">
-        <v>0.2345409124363727</v>
+        <v>0.05313784550466671</v>
       </c>
       <c r="O22">
-        <v>0.3658118282546425</v>
+        <v>1.59090297926474</v>
       </c>
       <c r="P22">
-        <v>1.1440572989702</v>
+        <v>0.2592336603341892</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3504122534054019</v>
+      </c>
+      <c r="R22">
+        <v>1.02689627852769</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.682453206019545</v>
+        <v>1.526962899414087</v>
       </c>
       <c r="C23">
-        <v>0.1792486170158156</v>
+        <v>0.1968744039645145</v>
       </c>
       <c r="D23">
-        <v>0.06353895618254057</v>
+        <v>0.076567253554785</v>
       </c>
       <c r="E23">
-        <v>0.04090237821863596</v>
+        <v>0.03986908899993225</v>
       </c>
       <c r="F23">
-        <v>1.340782977574207</v>
+        <v>1.142388181525334</v>
       </c>
       <c r="G23">
-        <v>1.05717811657631</v>
+        <v>1.006664890831814</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.007002427770697928</v>
+        <v>0.005609568073683846</v>
       </c>
       <c r="J23">
-        <v>0.7113399496496271</v>
+        <v>0.4904949423753209</v>
       </c>
       <c r="K23">
-        <v>0.7476702748793471</v>
+        <v>0.6020188276276741</v>
       </c>
       <c r="L23">
-        <v>0.05923979626788967</v>
+        <v>0.2213745522329198</v>
       </c>
       <c r="M23">
-        <v>1.6100562458723</v>
+        <v>0.2332328627189177</v>
       </c>
       <c r="N23">
-        <v>0.2281142236541314</v>
+        <v>0.05342531305595344</v>
       </c>
       <c r="O23">
-        <v>0.3534268073593552</v>
+        <v>1.544510998090402</v>
       </c>
       <c r="P23">
-        <v>1.161872836909676</v>
+        <v>0.2523938361708531</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3397210561509993</v>
+      </c>
+      <c r="R23">
+        <v>1.047954010412758</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.44632203589461</v>
+        <v>1.330854336276559</v>
       </c>
       <c r="C24">
-        <v>0.1534126748950655</v>
+        <v>0.1745454468214831</v>
       </c>
       <c r="D24">
-        <v>0.05579380913380305</v>
+        <v>0.06307873295620681</v>
       </c>
       <c r="E24">
-        <v>0.0396928961674945</v>
+        <v>0.03792749780044069</v>
       </c>
       <c r="F24">
-        <v>1.273354225032904</v>
+        <v>1.129335682950241</v>
       </c>
       <c r="G24">
-        <v>1.000849645440567</v>
+        <v>0.8736263611919384</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01149629790007456</v>
+        <v>0.008665811772238463</v>
       </c>
       <c r="J24">
-        <v>0.6942174593588959</v>
+        <v>0.6093464619684426</v>
       </c>
       <c r="K24">
-        <v>0.7296134649706048</v>
+        <v>0.6140337069562136</v>
       </c>
       <c r="L24">
-        <v>0.06018443582939081</v>
+        <v>0.2335929789805427</v>
       </c>
       <c r="M24">
-        <v>1.377804494644693</v>
+        <v>0.2272456902049029</v>
       </c>
       <c r="N24">
-        <v>0.2050750612731633</v>
+        <v>0.05445673754186231</v>
       </c>
       <c r="O24">
-        <v>0.3065247435593719</v>
+        <v>1.350871829263269</v>
       </c>
       <c r="P24">
-        <v>1.229131635268661</v>
+        <v>0.2272509877960829</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2974037319836285</v>
+      </c>
+      <c r="R24">
+        <v>1.124294184127091</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.193010229311085</v>
+        <v>1.102048923351134</v>
       </c>
       <c r="C25">
-        <v>0.1262913452793413</v>
+        <v>0.1412426313551975</v>
       </c>
       <c r="D25">
-        <v>0.04760073054939085</v>
+        <v>0.05333604042079543</v>
       </c>
       <c r="E25">
-        <v>0.03847912804756604</v>
+        <v>0.03681539434818504</v>
       </c>
       <c r="F25">
-        <v>1.206013892214855</v>
+        <v>1.080692291757543</v>
       </c>
       <c r="G25">
-        <v>0.9447287464679732</v>
+        <v>0.830102572960655</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01823862352758265</v>
+        <v>0.01358399959273004</v>
       </c>
       <c r="J25">
-        <v>0.6783834166575389</v>
+        <v>0.604935086041138</v>
       </c>
       <c r="K25">
-        <v>0.7126472075750527</v>
+        <v>0.6086952676533954</v>
       </c>
       <c r="L25">
-        <v>0.061265619237723</v>
+        <v>0.2400668738275513</v>
       </c>
       <c r="M25">
-        <v>1.129649931601847</v>
+        <v>0.2157644480584899</v>
       </c>
       <c r="N25">
-        <v>0.1813056945892271</v>
+        <v>0.05555966553852798</v>
       </c>
       <c r="O25">
-        <v>0.2565850704840216</v>
+        <v>1.111115191755061</v>
       </c>
       <c r="P25">
-        <v>1.305595625964255</v>
+        <v>0.200290308902666</v>
       </c>
       <c r="Q25">
+        <v>0.2490917477693984</v>
+      </c>
+      <c r="R25">
+        <v>1.199559722639641</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
